--- a/biology/Botanique/Jardin_botanique_de_l'université_d'Oulu/Jardin_botanique_de_l'université_d'Oulu.xlsx
+++ b/biology/Botanique/Jardin_botanique_de_l'université_d'Oulu/Jardin_botanique_de_l'université_d'Oulu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_botanique_de_l%27universit%C3%A9_d%27Oulu</t>
+          <t>Jardin_botanique_de_l'université_d'Oulu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin botanique de l'université d'Oulu  (en finnois : Oulun yliopiston kasvitieteellinen puutarha) est situé dans le quartier de Linnanmaa de la ville d'Oulu en Finlande.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_botanique_de_l%27universit%C3%A9_d%27Oulu</t>
+          <t>Jardin_botanique_de_l'université_d'Oulu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,13 +524,15 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin est dans le campus principal de l'université d'Oulu au bord du lac Kuivasjärvi. 
 Le jardin a été déplacé en 1983 des îles Hupisaaret aux quartier de Linnanmaa.
-Il fait partie du département de biologie de l'université[1].
-La surface totale du jardin est de 16 hectares[1].
-Les plantes ne supportant pas le climat local poussent dans deux serres nommées Roméo et Juliette[1].
+Il fait partie du département de biologie de l'université.
+La surface totale du jardin est de 16 hectares.
+Les plantes ne supportant pas le climat local poussent dans deux serres nommées Roméo et Juliette.
 </t>
         </is>
       </c>
